--- a/biology/Botanique/Thunbergia_mysorensis/Thunbergia_mysorensis.xlsx
+++ b/biology/Botanique/Thunbergia_mysorensis/Thunbergia_mysorensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thunbergia mysorensis, la Liane de Mysore, est une liane ou un arbuste grimpant de la famille des Acanthaceae. il tire son nom de la ville de Mysore dans le sud de l'Inde.
 Sur cet arbuste se développent à longueur d'années de longues grappes pendantes de fleurs rouges et jaunes.
